--- a/Code/Results/Cases/Case_0_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_166/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.467035086856505</v>
+        <v>2.267666833824733</v>
       </c>
       <c r="D2">
-        <v>1.545776701971384</v>
+        <v>3.116160134795282</v>
       </c>
       <c r="E2">
-        <v>3.307200094155625</v>
+        <v>8.90790172176087</v>
       </c>
       <c r="F2">
-        <v>27.74338768320807</v>
+        <v>22.84856934594624</v>
       </c>
       <c r="G2">
-        <v>2.0045978971674</v>
+        <v>3.579128696932475</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.29453565775384</v>
+        <v>18.61228321217679</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.10371489565677</v>
+        <v>20.10933778132328</v>
       </c>
       <c r="N2">
-        <v>19.43640352652352</v>
+        <v>17.14847856116813</v>
       </c>
       <c r="O2">
-        <v>21.47275611703133</v>
+        <v>19.69620884232447</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.337732019879307</v>
+        <v>2.236489039930447</v>
       </c>
       <c r="D3">
-        <v>1.594381679684577</v>
+        <v>3.128104637768304</v>
       </c>
       <c r="E3">
-        <v>3.795859380370268</v>
+        <v>9.071111396561825</v>
       </c>
       <c r="F3">
-        <v>25.91033477771798</v>
+        <v>22.40334625795055</v>
       </c>
       <c r="G3">
-        <v>2.012946755560812</v>
+        <v>3.582256344044262</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.00144118888279</v>
+        <v>18.36336929813508</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.11426144840076</v>
+        <v>19.3113018106483</v>
       </c>
       <c r="N3">
-        <v>18.59720509425032</v>
+        <v>16.86202298659484</v>
       </c>
       <c r="O3">
-        <v>20.15656662362667</v>
+        <v>19.43208596770203</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.254524784274991</v>
+        <v>2.217516696863296</v>
       </c>
       <c r="D4">
-        <v>1.624242971377178</v>
+        <v>3.135715199765265</v>
       </c>
       <c r="E4">
-        <v>4.101278177080795</v>
+        <v>9.17603757175806</v>
       </c>
       <c r="F4">
-        <v>24.77385789617771</v>
+        <v>22.13408135302123</v>
       </c>
       <c r="G4">
-        <v>2.018208621731021</v>
+        <v>3.584278229432194</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.22765596638949</v>
+        <v>18.21543289074031</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.82284882814674</v>
+        <v>18.80535993785947</v>
       </c>
       <c r="N4">
-        <v>18.06535722628875</v>
+        <v>16.68567178769943</v>
       </c>
       <c r="O4">
-        <v>19.33330565931663</v>
+        <v>19.27516094715822</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.219673393753757</v>
+        <v>2.209837287193575</v>
       </c>
       <c r="D5">
-        <v>1.636433850880941</v>
+        <v>3.138886508346932</v>
       </c>
       <c r="E5">
-        <v>4.227181311018017</v>
+        <v>9.219986010606579</v>
       </c>
       <c r="F5">
-        <v>24.30181347942423</v>
+        <v>22.02555685186682</v>
       </c>
       <c r="G5">
-        <v>2.020388618026829</v>
+        <v>3.585127778400224</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.90753318371351</v>
+        <v>18.15645614037657</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>26.27890550794356</v>
+        <v>18.59546109400052</v>
       </c>
       <c r="N5">
-        <v>17.84473325783466</v>
+        <v>16.61377914302983</v>
       </c>
       <c r="O5">
-        <v>18.99281577365499</v>
+        <v>19.21261367370104</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.213829877354919</v>
+        <v>2.208565527891166</v>
       </c>
       <c r="D6">
-        <v>1.638459968741288</v>
+        <v>3.139417337563406</v>
       </c>
       <c r="E6">
-        <v>4.248177243895983</v>
+        <v>9.227355633920139</v>
       </c>
       <c r="F6">
-        <v>24.22290167575159</v>
+        <v>22.00761409548249</v>
       </c>
       <c r="G6">
-        <v>2.020752809347372</v>
+        <v>3.585270395097859</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.85409620999262</v>
+        <v>18.14674431467211</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>26.18751325182433</v>
+        <v>18.56039169043028</v>
       </c>
       <c r="N6">
-        <v>17.80787264774487</v>
+        <v>16.60184236284296</v>
       </c>
       <c r="O6">
-        <v>18.93598491142742</v>
+        <v>19.2023146719334</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.254058564138861</v>
+        <v>2.217412907361846</v>
       </c>
       <c r="D7">
-        <v>1.624407269643034</v>
+        <v>3.135757685450338</v>
       </c>
       <c r="E7">
-        <v>4.102970188654842</v>
+        <v>9.17662545085725</v>
       </c>
       <c r="F7">
-        <v>24.76752744221358</v>
+        <v>22.13261265662346</v>
       </c>
       <c r="G7">
-        <v>2.018237875114619</v>
+        <v>3.584289582914316</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.2233577139361</v>
+        <v>18.21463211219791</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.81558474786578</v>
+        <v>18.80254384188861</v>
       </c>
       <c r="N7">
-        <v>18.06239717625265</v>
+        <v>16.68470221319256</v>
       </c>
       <c r="O7">
-        <v>19.32873354059996</v>
+        <v>19.27431163544018</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.423251165727276</v>
+        <v>2.256886652045655</v>
       </c>
       <c r="D8">
-        <v>1.562543139224175</v>
+        <v>3.120221430910871</v>
       </c>
       <c r="E8">
-        <v>3.474625128964241</v>
+        <v>8.963200644116535</v>
       </c>
       <c r="F8">
-        <v>27.09180784472939</v>
+        <v>22.69430743640546</v>
       </c>
       <c r="G8">
-        <v>2.007449454372197</v>
+        <v>3.580186099282567</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.80999308463954</v>
+        <v>18.52548826413983</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.43218370733135</v>
+        <v>19.83764547887423</v>
       </c>
       <c r="N8">
-        <v>19.15064212761661</v>
+        <v>17.04985843081084</v>
       </c>
       <c r="O8">
-        <v>21.01717627119255</v>
+        <v>19.60410000765757</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.724285529647928</v>
+        <v>2.335255741407644</v>
       </c>
       <c r="D9">
-        <v>1.536965054753423</v>
+        <v>3.091931299083549</v>
       </c>
       <c r="E9">
-        <v>2.450930424853333</v>
+        <v>8.581873619711793</v>
       </c>
       <c r="F9">
-        <v>31.68753576843523</v>
+        <v>23.82085353474157</v>
       </c>
       <c r="G9">
-        <v>1.987289212495125</v>
+        <v>3.572940329287471</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.23130846052148</v>
+        <v>19.17042021024251</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.01464829512798</v>
+        <v>21.7300622148706</v>
       </c>
       <c r="N9">
-        <v>21.14297355167802</v>
+        <v>17.75840759113683</v>
       </c>
       <c r="O9">
-        <v>24.58505156200742</v>
+        <v>20.28872559365047</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.92629663874308</v>
+        <v>2.392894322853097</v>
       </c>
       <c r="D10">
-        <v>1.61393548605981</v>
+        <v>3.072447446575471</v>
       </c>
       <c r="E10">
-        <v>3.223492876568656</v>
+        <v>8.324092448126947</v>
       </c>
       <c r="F10">
-        <v>34.83284464959083</v>
+        <v>24.65393969638901</v>
       </c>
       <c r="G10">
-        <v>1.972961604241921</v>
+        <v>3.568099410445844</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.56542073176514</v>
+        <v>19.66095779226536</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>37.05606556693097</v>
+        <v>23.02418899172949</v>
       </c>
       <c r="N10">
-        <v>22.50922273996934</v>
+        <v>18.26944999930586</v>
       </c>
       <c r="O10">
-        <v>27.06327541364774</v>
+        <v>20.80970170532845</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.014006681114613</v>
+        <v>2.419020096673616</v>
       </c>
       <c r="D11">
-        <v>1.64966704092226</v>
+        <v>3.063860622941303</v>
       </c>
       <c r="E11">
-        <v>3.581874130403954</v>
+        <v>8.211617299656963</v>
       </c>
       <c r="F11">
-        <v>36.21423451594607</v>
+        <v>25.03210792775555</v>
       </c>
       <c r="G11">
-        <v>1.966517998873615</v>
+        <v>3.566000683661486</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.58893971354514</v>
+        <v>19.88670007191656</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>38.37136643839585</v>
+        <v>23.58994099738629</v>
       </c>
       <c r="N11">
-        <v>23.10787766389545</v>
+        <v>18.49888101375172</v>
       </c>
       <c r="O11">
-        <v>28.15115354959461</v>
+        <v>21.04950481655393</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.046618695200825</v>
+        <v>2.428890890410405</v>
       </c>
       <c r="D12">
-        <v>1.663331040490734</v>
+        <v>3.060648344609915</v>
       </c>
       <c r="E12">
-        <v>3.718536817315119</v>
+        <v>8.169710008762834</v>
       </c>
       <c r="F12">
-        <v>36.73052938816692</v>
+        <v>25.17503660226199</v>
       </c>
       <c r="G12">
-        <v>1.964085755800713</v>
+        <v>3.56522072809927</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.9712715584948</v>
+        <v>19.97246919196362</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>38.85983579575975</v>
+        <v>23.8007339437164</v>
       </c>
       <c r="N12">
-        <v>23.33117886654073</v>
+        <v>18.58524528064757</v>
       </c>
       <c r="O12">
-        <v>28.55770121891762</v>
+        <v>21.14062388877539</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.039621859918811</v>
+        <v>2.426766176569334</v>
       </c>
       <c r="D13">
-        <v>1.660381800903016</v>
+        <v>3.06133842167437</v>
       </c>
       <c r="E13">
-        <v>3.689061031960343</v>
+        <v>8.178705113668663</v>
       </c>
       <c r="F13">
-        <v>36.61963348732078</v>
+        <v>25.14426905863891</v>
       </c>
       <c r="G13">
-        <v>1.964609284230413</v>
+        <v>3.56538804921528</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.88915879799211</v>
+        <v>19.95398596376138</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>38.75505887560548</v>
+        <v>23.75549121083012</v>
       </c>
       <c r="N13">
-        <v>23.28323950024571</v>
+        <v>18.56666935869195</v>
       </c>
       <c r="O13">
-        <v>28.4703797532404</v>
+        <v>21.12098740710349</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.016701745870305</v>
+        <v>2.419832673171377</v>
       </c>
       <c r="D14">
-        <v>1.650788327899766</v>
+        <v>3.063595560175298</v>
       </c>
       <c r="E14">
-        <v>3.593098156443931</v>
+        <v>8.208155865592495</v>
       </c>
       <c r="F14">
-        <v>36.25684493650848</v>
+        <v>25.04387316085324</v>
       </c>
       <c r="G14">
-        <v>1.966317757673214</v>
+        <v>3.565936220394605</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.62049809296346</v>
+        <v>19.89375112590419</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>38.41174436273729</v>
+        <v>23.60735285755998</v>
       </c>
       <c r="N14">
-        <v>23.12631739849293</v>
+        <v>18.50599703610612</v>
       </c>
       <c r="O14">
-        <v>28.18470718603428</v>
+        <v>21.0569955354768</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.002584169658463</v>
+        <v>2.415582516280257</v>
       </c>
       <c r="D15">
-        <v>1.644930368610915</v>
+        <v>3.064983237580136</v>
       </c>
       <c r="E15">
-        <v>3.534443056547317</v>
+        <v>8.226284330457169</v>
       </c>
       <c r="F15">
-        <v>36.03374971785666</v>
+        <v>24.98233730882644</v>
       </c>
       <c r="G15">
-        <v>1.967365174282407</v>
+        <v>3.566273914175112</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.45525965396657</v>
+        <v>19.85689014050916</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>38.2002098193535</v>
+        <v>23.51616125962559</v>
       </c>
       <c r="N15">
-        <v>23.02975293208291</v>
+        <v>18.4687639917083</v>
       </c>
       <c r="O15">
-        <v>28.00902880017209</v>
+        <v>21.01783641017624</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.920480306423782</v>
+        <v>2.391184276618969</v>
       </c>
       <c r="D16">
-        <v>1.611617251957715</v>
+        <v>3.073014145660095</v>
       </c>
       <c r="E16">
-        <v>3.200204117484666</v>
+        <v>8.331538997853183</v>
       </c>
       <c r="F16">
-        <v>34.74159746566838</v>
+        <v>24.62919547431357</v>
       </c>
       <c r="G16">
-        <v>1.973383963949439</v>
+        <v>3.568238641069593</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.49778187264728</v>
+        <v>19.64624968659666</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>36.96875142045859</v>
+        <v>22.98674106415534</v>
       </c>
       <c r="N16">
-        <v>22.46962934910683</v>
+        <v>18.2543880785051</v>
       </c>
       <c r="O16">
-        <v>26.99140774869096</v>
+        <v>20.7940785403046</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.869039501465653</v>
+        <v>2.376186168787622</v>
       </c>
       <c r="D17">
-        <v>1.591384513833815</v>
+        <v>3.078011381728062</v>
       </c>
       <c r="E17">
-        <v>2.996854559659794</v>
+        <v>8.397333290293199</v>
       </c>
       <c r="F17">
-        <v>33.93644197591259</v>
+        <v>24.41223190146688</v>
       </c>
       <c r="G17">
-        <v>1.977093346963441</v>
+        <v>3.569470366899079</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.90076499479098</v>
+        <v>19.51763031565045</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>36.19595137758345</v>
+        <v>22.65597055343066</v>
       </c>
       <c r="N17">
-        <v>22.12007134255477</v>
+        <v>18.12203850212096</v>
       </c>
       <c r="O17">
-        <v>26.3571985331908</v>
+        <v>20.65746307731851</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.83905797713073</v>
+        <v>2.367551294271564</v>
       </c>
       <c r="D18">
-        <v>1.579812650787981</v>
+        <v>3.080911706678383</v>
       </c>
       <c r="E18">
-        <v>2.880537177626499</v>
+        <v>8.435627614898458</v>
       </c>
       <c r="F18">
-        <v>33.4686644933477</v>
+        <v>24.28737332233715</v>
       </c>
       <c r="G18">
-        <v>1.979234047886936</v>
+        <v>3.570188563629171</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.55375655646528</v>
+        <v>19.44390122697095</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>35.74501901443767</v>
+        <v>22.46356688300708</v>
       </c>
       <c r="N18">
-        <v>21.91686814582884</v>
+        <v>18.04563238881919</v>
       </c>
       <c r="O18">
-        <v>25.98868401123454</v>
+        <v>20.57915532921727</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.828839089122722</v>
+        <v>2.36462651426264</v>
       </c>
       <c r="D19">
-        <v>1.575905015175165</v>
+        <v>3.081898192380679</v>
       </c>
       <c r="E19">
-        <v>2.841268552043599</v>
+        <v>8.448671038867991</v>
       </c>
       <c r="F19">
-        <v>33.3094721089676</v>
+        <v>24.24509185078261</v>
       </c>
       <c r="G19">
-        <v>1.979960164149748</v>
+        <v>3.570433408305677</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.4356365448936</v>
+        <v>19.41898334447281</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>35.59122929304981</v>
+        <v>22.39805724048565</v>
       </c>
       <c r="N19">
-        <v>21.84770207676297</v>
+        <v>18.01971658932601</v>
       </c>
       <c r="O19">
-        <v>25.86326238961624</v>
+        <v>20.55269087366669</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.874556260775215</v>
+        <v>2.377783673541762</v>
       </c>
       <c r="D20">
-        <v>1.593531343090673</v>
+        <v>3.077476724534729</v>
       </c>
       <c r="E20">
-        <v>3.01843561123005</v>
+        <v>8.390282710923175</v>
       </c>
       <c r="F20">
-        <v>34.02263381314044</v>
+        <v>24.43533614460781</v>
       </c>
       <c r="G20">
-        <v>1.976697755188048</v>
+        <v>3.569338240097222</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.96469140592034</v>
+        <v>19.53129689732207</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>36.2788821513307</v>
+        <v>22.69140560279838</v>
       </c>
       <c r="N20">
-        <v>22.15750543155507</v>
+        <v>18.13615712153003</v>
       </c>
       <c r="O20">
-        <v>26.42509582792111</v>
+        <v>20.67197877606482</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.023450262871149</v>
+        <v>2.421869890619367</v>
       </c>
       <c r="D21">
-        <v>1.653602285521003</v>
+        <v>3.062931518641959</v>
       </c>
       <c r="E21">
-        <v>3.621258639783851</v>
+        <v>8.199486919916597</v>
       </c>
       <c r="F21">
-        <v>36.36358683495796</v>
+        <v>25.07337057599626</v>
       </c>
       <c r="G21">
-        <v>1.965815749896514</v>
+        <v>3.565774808611597</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.69955063551145</v>
+        <v>19.91143650329869</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>38.51284310438518</v>
+        <v>23.65095922886917</v>
       </c>
       <c r="N21">
-        <v>23.17250215382827</v>
+        <v>18.52383258501156</v>
       </c>
       <c r="O21">
-        <v>28.26876059210557</v>
+        <v>21.07578379744986</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.117254397493696</v>
+        <v>2.450547884358581</v>
       </c>
       <c r="D22">
-        <v>1.693656025808944</v>
+        <v>3.053654655394004</v>
       </c>
       <c r="E22">
-        <v>4.020850303062088</v>
+        <v>8.078779285627764</v>
       </c>
       <c r="F22">
-        <v>37.85403219908535</v>
+        <v>25.48868932317644</v>
       </c>
       <c r="G22">
-        <v>1.958747695821227</v>
+        <v>3.563532048618784</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.80290652727667</v>
+        <v>20.16150379728794</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>39.91698464100273</v>
+        <v>24.25794976634317</v>
       </c>
       <c r="N22">
-        <v>23.81603002087901</v>
+        <v>18.77415810834763</v>
       </c>
       <c r="O22">
-        <v>29.44233129146048</v>
+        <v>21.34146353234912</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.0675096739378</v>
+        <v>2.435257111343106</v>
       </c>
       <c r="D23">
-        <v>1.67219480773514</v>
+        <v>3.058585043338801</v>
       </c>
       <c r="E23">
-        <v>3.807048796778654</v>
+        <v>8.142839690478077</v>
       </c>
       <c r="F23">
-        <v>37.06205530833446</v>
+        <v>25.26722962439144</v>
       </c>
       <c r="G23">
-        <v>1.962517052218649</v>
+        <v>3.564721197739841</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.2167211610008</v>
+        <v>20.02791813932818</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>39.1726062136258</v>
+        <v>23.93587213268806</v>
       </c>
       <c r="N23">
-        <v>23.47441164978417</v>
+        <v>18.64085795863757</v>
       </c>
       <c r="O23">
-        <v>28.81874623794871</v>
+        <v>21.19953364764385</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.872063403204739</v>
+        <v>2.377061479169553</v>
       </c>
       <c r="D24">
-        <v>1.592560576263606</v>
+        <v>3.077718357821805</v>
       </c>
       <c r="E24">
-        <v>3.008676972440122</v>
+        <v>8.393468818699432</v>
       </c>
       <c r="F24">
-        <v>33.98368171462067</v>
+        <v>24.42489108816609</v>
       </c>
       <c r="G24">
-        <v>1.97687657670443</v>
+        <v>3.569397943277856</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.93580205388158</v>
+        <v>19.52511755652527</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>36.2414098440087</v>
+        <v>22.67539238069711</v>
       </c>
       <c r="N24">
-        <v>22.14058844111464</v>
+        <v>18.12977507375716</v>
       </c>
       <c r="O24">
-        <v>26.39441162595065</v>
+        <v>20.66541549170612</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.646193670359939</v>
+        <v>2.314006589404088</v>
       </c>
       <c r="D25">
-        <v>1.509078731400362</v>
+        <v>3.099354204761634</v>
       </c>
       <c r="E25">
-        <v>2.600683849971213</v>
+        <v>8.681081193045891</v>
       </c>
       <c r="F25">
-        <v>30.48370502345088</v>
+        <v>23.51444389918862</v>
       </c>
       <c r="G25">
-        <v>1.992648482706191</v>
+        <v>3.574815340379839</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.33630428468045</v>
+        <v>18.99266077954127</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.83282404872413</v>
+        <v>21.23422152566114</v>
       </c>
       <c r="N25">
-        <v>20.62044226471491</v>
+        <v>17.56805320244677</v>
       </c>
       <c r="O25">
-        <v>23.63582951254605</v>
+        <v>20.09998255463013</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_166/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.267666833824733</v>
+        <v>2.467035086856562</v>
       </c>
       <c r="D2">
-        <v>3.116160134795282</v>
+        <v>1.54577670197145</v>
       </c>
       <c r="E2">
-        <v>8.90790172176087</v>
+        <v>3.307200094155496</v>
       </c>
       <c r="F2">
-        <v>22.84856934594624</v>
+        <v>27.743387683208</v>
       </c>
       <c r="G2">
-        <v>3.579128696932475</v>
+        <v>2.004597897167533</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.61228321217679</v>
+        <v>20.2945356577538</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.10933778132328</v>
+        <v>30.10371489565673</v>
       </c>
       <c r="N2">
-        <v>17.14847856116813</v>
+        <v>19.43640352652352</v>
       </c>
       <c r="O2">
-        <v>19.69620884232447</v>
+        <v>21.47275611703127</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.236489039930447</v>
+        <v>2.337732019879406</v>
       </c>
       <c r="D3">
-        <v>3.128104637768304</v>
+        <v>1.594381679684577</v>
       </c>
       <c r="E3">
-        <v>9.071111396561825</v>
+        <v>3.795859380370203</v>
       </c>
       <c r="F3">
-        <v>22.40334625795055</v>
+        <v>25.91033477771798</v>
       </c>
       <c r="G3">
-        <v>3.582256344044262</v>
+        <v>2.012946755560946</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.36336929813508</v>
+        <v>19.00144118888281</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.3113018106483</v>
+        <v>28.11426144840074</v>
       </c>
       <c r="N3">
-        <v>16.86202298659484</v>
+        <v>18.59720509425031</v>
       </c>
       <c r="O3">
-        <v>19.43208596770203</v>
+        <v>20.15656662362668</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.217516696863296</v>
+        <v>2.254524784274984</v>
       </c>
       <c r="D4">
-        <v>3.135715199765265</v>
+        <v>1.624242971377177</v>
       </c>
       <c r="E4">
-        <v>9.17603757175806</v>
+        <v>4.101278177080861</v>
       </c>
       <c r="F4">
-        <v>22.13408135302123</v>
+        <v>24.7738578961777</v>
       </c>
       <c r="G4">
-        <v>3.584278229432194</v>
+        <v>2.018208621731022</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.21543289074031</v>
+        <v>18.2276559663895</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.80535993785947</v>
+        <v>26.82284882814672</v>
       </c>
       <c r="N4">
-        <v>16.68567178769943</v>
+        <v>18.06535722628875</v>
       </c>
       <c r="O4">
-        <v>19.27516094715822</v>
+        <v>19.33330565931664</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.209837287193575</v>
+        <v>2.21967339375373</v>
       </c>
       <c r="D5">
-        <v>3.138886508346932</v>
+        <v>1.636433850881075</v>
       </c>
       <c r="E5">
-        <v>9.219986010606579</v>
+        <v>4.227181311018018</v>
       </c>
       <c r="F5">
-        <v>22.02555685186682</v>
+        <v>24.30181347942423</v>
       </c>
       <c r="G5">
-        <v>3.585127778400224</v>
+        <v>2.020388618026697</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.15645614037657</v>
+        <v>17.9075331837135</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.59546109400052</v>
+        <v>26.27890550794357</v>
       </c>
       <c r="N5">
-        <v>16.61377914302983</v>
+        <v>17.84473325783469</v>
       </c>
       <c r="O5">
-        <v>19.21261367370104</v>
+        <v>18.99281577365499</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.208565527891166</v>
+        <v>2.213829877354926</v>
       </c>
       <c r="D6">
-        <v>3.139417337563406</v>
+        <v>1.638459968741355</v>
       </c>
       <c r="E6">
-        <v>9.227355633920139</v>
+        <v>4.248177243895918</v>
       </c>
       <c r="F6">
-        <v>22.00761409548249</v>
+        <v>24.22290167575157</v>
       </c>
       <c r="G6">
-        <v>3.585270395097859</v>
+        <v>2.02075280934737</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.14674431467211</v>
+        <v>17.8540962099926</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.56039169043028</v>
+        <v>26.18751325182441</v>
       </c>
       <c r="N6">
-        <v>16.60184236284296</v>
+        <v>17.80787264774489</v>
       </c>
       <c r="O6">
-        <v>19.2023146719334</v>
+        <v>18.93598491142742</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.217412907361846</v>
+        <v>2.254058564138848</v>
       </c>
       <c r="D7">
-        <v>3.135757685450338</v>
+        <v>1.6244072696431</v>
       </c>
       <c r="E7">
-        <v>9.17662545085725</v>
+        <v>4.102970188654711</v>
       </c>
       <c r="F7">
-        <v>22.13261265662346</v>
+        <v>24.76752744221358</v>
       </c>
       <c r="G7">
-        <v>3.584289582914316</v>
+        <v>2.01823787511462</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.21463211219791</v>
+        <v>18.22335771393612</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.80254384188861</v>
+        <v>26.81558474786573</v>
       </c>
       <c r="N7">
-        <v>16.68470221319256</v>
+        <v>18.06239717625264</v>
       </c>
       <c r="O7">
-        <v>19.27431163544018</v>
+        <v>19.32873354059999</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.256886652045655</v>
+        <v>2.423251165727361</v>
       </c>
       <c r="D8">
-        <v>3.120221430910871</v>
+        <v>1.562543139224243</v>
       </c>
       <c r="E8">
-        <v>8.963200644116535</v>
+        <v>3.474625128964246</v>
       </c>
       <c r="F8">
-        <v>22.69430743640546</v>
+        <v>27.09180784472939</v>
       </c>
       <c r="G8">
-        <v>3.580186099282567</v>
+        <v>2.007449454372062</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.52548826413983</v>
+        <v>19.80999308463955</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.83764547887423</v>
+        <v>29.43218370733133</v>
       </c>
       <c r="N8">
-        <v>17.04985843081084</v>
+        <v>19.15064212761661</v>
       </c>
       <c r="O8">
-        <v>19.60410000765757</v>
+        <v>21.01717627119256</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.335255741407644</v>
+        <v>2.724285529647929</v>
       </c>
       <c r="D9">
-        <v>3.091931299083549</v>
+        <v>1.536965054753478</v>
       </c>
       <c r="E9">
-        <v>8.581873619711793</v>
+        <v>2.450930424853345</v>
       </c>
       <c r="F9">
-        <v>23.82085353474157</v>
+        <v>31.6875357684351</v>
       </c>
       <c r="G9">
-        <v>3.572940329287471</v>
+        <v>1.987289212495125</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.17042021024251</v>
+        <v>23.2313084605214</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.7300622148706</v>
+        <v>34.01464829512791</v>
       </c>
       <c r="N9">
-        <v>17.75840759113683</v>
+        <v>21.14297355167804</v>
       </c>
       <c r="O9">
-        <v>20.28872559365047</v>
+        <v>24.58505156200732</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.392894322853097</v>
+        <v>2.926296638743096</v>
       </c>
       <c r="D10">
-        <v>3.072447446575471</v>
+        <v>1.613935486059679</v>
       </c>
       <c r="E10">
-        <v>8.324092448126947</v>
+        <v>3.223492876568784</v>
       </c>
       <c r="F10">
-        <v>24.65393969638901</v>
+        <v>34.83284464959073</v>
       </c>
       <c r="G10">
-        <v>3.568099410445844</v>
+        <v>1.972961604241922</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.66095779226536</v>
+        <v>25.56542073176506</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.02418899172949</v>
+        <v>37.05606556693093</v>
       </c>
       <c r="N10">
-        <v>18.26944999930586</v>
+        <v>22.50922273996936</v>
       </c>
       <c r="O10">
-        <v>20.80970170532845</v>
+        <v>27.06327541364763</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.419020096673616</v>
+        <v>3.014006681114711</v>
       </c>
       <c r="D11">
-        <v>3.063860622941303</v>
+        <v>1.649667040922198</v>
       </c>
       <c r="E11">
-        <v>8.211617299656963</v>
+        <v>3.581874130404143</v>
       </c>
       <c r="F11">
-        <v>25.03210792775555</v>
+        <v>36.21423451594612</v>
       </c>
       <c r="G11">
-        <v>3.566000683661486</v>
+        <v>1.966517998873481</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.88670007191656</v>
+        <v>26.58893971354519</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.58994099738629</v>
+        <v>38.3713664383959</v>
       </c>
       <c r="N11">
-        <v>18.49888101375172</v>
+        <v>23.10787766389545</v>
       </c>
       <c r="O11">
-        <v>21.04950481655393</v>
+        <v>28.15115354959467</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.428890890410405</v>
+        <v>3.046618695200771</v>
       </c>
       <c r="D12">
-        <v>3.060648344609915</v>
+        <v>1.663331040490729</v>
       </c>
       <c r="E12">
-        <v>8.169710008762834</v>
+        <v>3.71853681731512</v>
       </c>
       <c r="F12">
-        <v>25.17503660226199</v>
+        <v>36.73052938816696</v>
       </c>
       <c r="G12">
-        <v>3.56522072809927</v>
+        <v>1.964085755800578</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.97246919196362</v>
+        <v>26.97127155849482</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.8007339437164</v>
+        <v>38.85983579575976</v>
       </c>
       <c r="N12">
-        <v>18.58524528064757</v>
+        <v>23.33117886654073</v>
       </c>
       <c r="O12">
-        <v>21.14062388877539</v>
+        <v>28.55770121891766</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.426766176569334</v>
+        <v>3.039621859918866</v>
       </c>
       <c r="D13">
-        <v>3.06133842167437</v>
+        <v>1.660381800903019</v>
       </c>
       <c r="E13">
-        <v>8.178705113668663</v>
+        <v>3.689061031960405</v>
       </c>
       <c r="F13">
-        <v>25.14426905863891</v>
+        <v>36.61963348732083</v>
       </c>
       <c r="G13">
-        <v>3.56538804921528</v>
+        <v>1.964609284230414</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.95398596376138</v>
+        <v>26.88915879799215</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.75549121083012</v>
+        <v>38.75505887560549</v>
       </c>
       <c r="N13">
-        <v>18.56666935869195</v>
+        <v>23.28323950024569</v>
       </c>
       <c r="O13">
-        <v>21.12098740710349</v>
+        <v>28.47037975324046</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.419832673171377</v>
+        <v>3.016701745870305</v>
       </c>
       <c r="D14">
-        <v>3.063595560175298</v>
+        <v>1.650788327899766</v>
       </c>
       <c r="E14">
-        <v>8.208155865592495</v>
+        <v>3.593098156443927</v>
       </c>
       <c r="F14">
-        <v>25.04387316085324</v>
+        <v>36.25684493650846</v>
       </c>
       <c r="G14">
-        <v>3.565936220394605</v>
+        <v>1.966317757673346</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.89375112590419</v>
+        <v>26.62049809296344</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.60735285755998</v>
+        <v>38.4117443627373</v>
       </c>
       <c r="N14">
-        <v>18.50599703610612</v>
+        <v>23.12631739849293</v>
       </c>
       <c r="O14">
-        <v>21.0569955354768</v>
+        <v>28.18470718603428</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.415582516280257</v>
+        <v>3.002584169658449</v>
       </c>
       <c r="D15">
-        <v>3.064983237580136</v>
+        <v>1.644930368610844</v>
       </c>
       <c r="E15">
-        <v>8.226284330457169</v>
+        <v>3.534443056547246</v>
       </c>
       <c r="F15">
-        <v>24.98233730882644</v>
+        <v>36.03374971785662</v>
       </c>
       <c r="G15">
-        <v>3.566273914175112</v>
+        <v>1.967365174282408</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.85689014050916</v>
+        <v>26.45525965396653</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.51616125962559</v>
+        <v>38.20020981935349</v>
       </c>
       <c r="N15">
-        <v>18.4687639917083</v>
+        <v>23.02975293208291</v>
       </c>
       <c r="O15">
-        <v>21.01783641017624</v>
+        <v>28.00902880017207</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.391184276618969</v>
+        <v>2.920480306423711</v>
       </c>
       <c r="D16">
-        <v>3.073014145660095</v>
+        <v>1.611617251957526</v>
       </c>
       <c r="E16">
-        <v>8.331538997853183</v>
+        <v>3.200204117484855</v>
       </c>
       <c r="F16">
-        <v>24.62919547431357</v>
+        <v>34.74159746566836</v>
       </c>
       <c r="G16">
-        <v>3.568238641069593</v>
+        <v>1.973383963949437</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.64624968659666</v>
+        <v>25.49778187264722</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.98674106415534</v>
+        <v>36.96875142045856</v>
       </c>
       <c r="N16">
-        <v>18.2543880785051</v>
+        <v>22.46962934910682</v>
       </c>
       <c r="O16">
-        <v>20.7940785403046</v>
+        <v>26.9914077486909</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.376186168787622</v>
+        <v>2.869039501465624</v>
       </c>
       <c r="D17">
-        <v>3.078011381728062</v>
+        <v>1.591384513834006</v>
       </c>
       <c r="E17">
-        <v>8.397333290293199</v>
+        <v>2.996854559659794</v>
       </c>
       <c r="F17">
-        <v>24.41223190146688</v>
+        <v>33.93644197591262</v>
       </c>
       <c r="G17">
-        <v>3.569470366899079</v>
+        <v>1.977093346963306</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.51763031565045</v>
+        <v>24.90076499479102</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.65597055343066</v>
+        <v>36.19595137758348</v>
       </c>
       <c r="N17">
-        <v>18.12203850212096</v>
+        <v>22.12007134255477</v>
       </c>
       <c r="O17">
-        <v>20.65746307731851</v>
+        <v>26.35719853319085</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.367551294271564</v>
+        <v>2.839057977130728</v>
       </c>
       <c r="D18">
-        <v>3.080911706678383</v>
+        <v>1.579812650787977</v>
       </c>
       <c r="E18">
-        <v>8.435627614898458</v>
+        <v>2.880537177626553</v>
       </c>
       <c r="F18">
-        <v>24.28737332233715</v>
+        <v>33.46866449334765</v>
       </c>
       <c r="G18">
-        <v>3.570188563629171</v>
+        <v>1.979234047886806</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.44390122697095</v>
+        <v>24.55375655646525</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.46356688300708</v>
+        <v>35.74501901443767</v>
       </c>
       <c r="N18">
-        <v>18.04563238881919</v>
+        <v>21.91686814582882</v>
       </c>
       <c r="O18">
-        <v>20.57915532921727</v>
+        <v>25.98868401123451</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.36462651426264</v>
+        <v>2.828839089122563</v>
       </c>
       <c r="D19">
-        <v>3.081898192380679</v>
+        <v>1.57590501517516</v>
       </c>
       <c r="E19">
-        <v>8.448671038867991</v>
+        <v>2.841268552043607</v>
       </c>
       <c r="F19">
-        <v>24.24509185078261</v>
+        <v>33.30947210896754</v>
       </c>
       <c r="G19">
-        <v>3.570433408305677</v>
+        <v>1.97996016414948</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.41898334447281</v>
+        <v>24.43563654489353</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.39805724048565</v>
+        <v>35.59122929304974</v>
       </c>
       <c r="N19">
-        <v>18.01971658932601</v>
+        <v>21.84770207676297</v>
       </c>
       <c r="O19">
-        <v>20.55269087366669</v>
+        <v>25.86326238961619</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.377783673541762</v>
+        <v>2.874556260775222</v>
       </c>
       <c r="D20">
-        <v>3.077476724534729</v>
+        <v>1.593531343090806</v>
       </c>
       <c r="E20">
-        <v>8.390282710923175</v>
+        <v>3.018435611229992</v>
       </c>
       <c r="F20">
-        <v>24.43533614460781</v>
+        <v>34.0226338131404</v>
       </c>
       <c r="G20">
-        <v>3.569338240097222</v>
+        <v>1.976697755188048</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.53129689732207</v>
+        <v>24.96469140592031</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.69140560279838</v>
+        <v>36.27888215133067</v>
       </c>
       <c r="N20">
-        <v>18.13615712153003</v>
+        <v>22.15750543155507</v>
       </c>
       <c r="O20">
-        <v>20.67197877606482</v>
+        <v>26.42509582792108</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.421869890619367</v>
+        <v>3.023450262871148</v>
       </c>
       <c r="D21">
-        <v>3.062931518641959</v>
+        <v>1.653602285521184</v>
       </c>
       <c r="E21">
-        <v>8.199486919916597</v>
+        <v>3.621258639783718</v>
       </c>
       <c r="F21">
-        <v>25.07337057599626</v>
+        <v>36.36358683495796</v>
       </c>
       <c r="G21">
-        <v>3.565774808611597</v>
+        <v>1.965815749896512</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.91143650329869</v>
+        <v>26.69955063551147</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.65095922886917</v>
+        <v>38.5128431043852</v>
       </c>
       <c r="N21">
-        <v>18.52383258501156</v>
+        <v>23.17250215382829</v>
       </c>
       <c r="O21">
-        <v>21.07578379744986</v>
+        <v>28.26876059210559</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.450547884358581</v>
+        <v>3.117254397493695</v>
       </c>
       <c r="D22">
-        <v>3.053654655394004</v>
+        <v>1.693656025809066</v>
       </c>
       <c r="E22">
-        <v>8.078779285627764</v>
+        <v>4.020850303061955</v>
       </c>
       <c r="F22">
-        <v>25.48868932317644</v>
+        <v>37.85403219908529</v>
       </c>
       <c r="G22">
-        <v>3.563532048618784</v>
+        <v>1.958747695821359</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.16150379728794</v>
+        <v>27.80290652727665</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.25794976634317</v>
+        <v>39.91698464100273</v>
       </c>
       <c r="N22">
-        <v>18.77415810834763</v>
+        <v>23.81603002087903</v>
       </c>
       <c r="O22">
-        <v>21.34146353234912</v>
+        <v>29.44233129146048</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.435257111343106</v>
+        <v>3.067509673937884</v>
       </c>
       <c r="D23">
-        <v>3.058585043338801</v>
+        <v>1.672194807735078</v>
       </c>
       <c r="E23">
-        <v>8.142839690478077</v>
+        <v>3.807048796778692</v>
       </c>
       <c r="F23">
-        <v>25.26722962439144</v>
+        <v>37.06205530833449</v>
       </c>
       <c r="G23">
-        <v>3.564721197739841</v>
+        <v>1.962517052218784</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.02791813932818</v>
+        <v>27.21672116100083</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.93587213268806</v>
+        <v>39.17260621362582</v>
       </c>
       <c r="N23">
-        <v>18.64085795863757</v>
+        <v>23.47441164978421</v>
       </c>
       <c r="O23">
-        <v>21.19953364764385</v>
+        <v>28.81874623794873</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.377061479169553</v>
+        <v>2.872063403204669</v>
       </c>
       <c r="D24">
-        <v>3.077718357821805</v>
+        <v>1.592560576263675</v>
       </c>
       <c r="E24">
-        <v>8.393468818699432</v>
+        <v>3.008676972440176</v>
       </c>
       <c r="F24">
-        <v>24.42489108816609</v>
+        <v>33.98368171462074</v>
       </c>
       <c r="G24">
-        <v>3.569397943277856</v>
+        <v>1.976876576704296</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.52511755652527</v>
+        <v>24.93580205388161</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.67539238069711</v>
+        <v>36.24140984400875</v>
       </c>
       <c r="N24">
-        <v>18.12977507375716</v>
+        <v>22.14058844111463</v>
       </c>
       <c r="O24">
-        <v>20.66541549170612</v>
+        <v>26.3944116259507</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.314006589404088</v>
+        <v>2.646193670360013</v>
       </c>
       <c r="D25">
-        <v>3.099354204761634</v>
+        <v>1.509078731400358</v>
       </c>
       <c r="E25">
-        <v>8.681081193045891</v>
+        <v>2.600683849971269</v>
       </c>
       <c r="F25">
-        <v>23.51444389918862</v>
+        <v>30.48370502345096</v>
       </c>
       <c r="G25">
-        <v>3.574815340379839</v>
+        <v>1.99264848270606</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.99266077954127</v>
+        <v>22.33630428468051</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.23422152566114</v>
+        <v>32.8328240487242</v>
       </c>
       <c r="N25">
-        <v>17.56805320244677</v>
+        <v>20.6204422647149</v>
       </c>
       <c r="O25">
-        <v>20.09998255463013</v>
+        <v>23.6358295125461</v>
       </c>
     </row>
   </sheetData>
